--- a/data/population_models/models_summary_hainich_male_weight95.xlsx
+++ b/data/population_models/models_summary_hainich_male_weight95.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>127 [108-151]</t>
+          <t>93 [79-111]</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>105 [87-127]</t>
+          <t>77 [64-93]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>106 [88-129]</t>
+          <t>78 [65-94]</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>123 [104-146]</t>
+          <t>90 [76-107]</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>107 [90-129]</t>
+          <t>79 [66-95]</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>106 [88-128]</t>
+          <t>78 [65-94]</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>124 [105-148]</t>
+          <t>91 [77-108]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>108 [91-130]</t>
+          <t>79 [66-95]</t>
         </is>
       </c>
     </row>

--- a/data/population_models/models_summary_hainich_male_weight95.xlsx
+++ b/data/population_models/models_summary_hainich_male_weight95.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.86 [0.819-0.899]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.04]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.072]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>11342 [9561-13515]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1450.908779701121</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.3263417999935982</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-6415.9184</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>93 [79-111]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>115 [97-137]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.86 [0.814-0.901]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.03 [0.015-0.113]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>11423 [9622-13621]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1452.55387165109</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.645091949969355</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1433657881530679</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-6416.2983</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>77 [64-93]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>115 [97-138]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.86 [0.797-0.906]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.04]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.078]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>11479 [9596-13799]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1452.75267165109</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.843891949969475</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1298005865796189</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-6416.0995</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>78 [65-94]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>116 [97-139]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.87 [0.821-0.9]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.039]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.03 [0.016-0.073]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>11242 [9474-13401]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1453.225507965152</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.316728264031553</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.1024711367593504</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-6411.5793</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>90 [76-107]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>114 [96-135]</t>
         </is>
       </c>
     </row>
@@ -608,44 +625,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.86 [0.797-0.902]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.04]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.04 [0.017-0.081]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>11571 [9681-13897]</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1454.003279701121</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.094499999999925</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.06945612778462019</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-6412.824</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>79 [66-95]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>117 [98-140]</t>
         </is>
       </c>
     </row>
@@ -655,44 +675,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0.87 [0.822-0.905]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.03 [0.02-0.033]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0.01 [0.002-0.066]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>10830 [9092-12965]</t>
         </is>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1454.356707965153</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.447928264031589</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.05820557650195467</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-6410.448</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>78 [65-94]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>109 [92-131]</t>
         </is>
       </c>
     </row>
@@ -702,44 +725,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>81</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>0.86 [0.789-0.911]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.03 [0.013-0.131]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>11479 [9594-13801]</t>
         </is>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1454.548688528678</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.639908827557292</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.05287818566681132</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-6416.3311</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>91 [77-108]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>116 [97-139]</t>
         </is>
       </c>
     </row>
@@ -749,44 +775,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>74</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>0.86 [0.815-0.9]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.03 [0.023-0.042]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.04 [0.016-0.091]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>11332 [9555-13500]</t>
         </is>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1454.755379701121</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.846599999999853</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.04768635500364702</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-6412.0718</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>79 [66-95]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>114 [97-136]</t>
         </is>
       </c>
     </row>
